--- a/data/trans_orig/barthel-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/barthel-Estudios-trans_orig.xlsx
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>94,3</t>
+          <t>94,36</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>89,23</t>
+          <t>89,44</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>90,96</t>
+          <t>91,16</t>
         </is>
       </c>
     </row>
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>92,91; 95,4</t>
+          <t>92,96; 95,45</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>87,88; 90,44</t>
+          <t>88,2; 90,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>89,91; 91,85</t>
+          <t>90,19; 92,03</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>97,19</t>
+          <t>97,22</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>97,23</t>
+          <t>97,89</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>97,22</t>
+          <t>97,64</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>95,78; 97,95</t>
+          <t>95,82; 97,97</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>95,89; 98,76</t>
+          <t>95,97; 99,25</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>96,39; 98,41</t>
+          <t>96,49; 98,93</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>98,87</t>
+          <t>98,89</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>98,62</t>
+          <t>98,61</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>98,77</t>
+          <t>98,78</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>98,13; 99,3</t>
+          <t>98,21; 99,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>97,81; 99,12</t>
+          <t>97,82; 99,1</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>98,27; 99,13</t>
+          <t>98,3; 99,14</t>
         </is>
       </c>
     </row>
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>96,27</t>
+          <t>96,3</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>93,0</t>
+          <t>93,85</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>94,33</t>
+          <t>94,8</t>
         </is>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,6; 96,89</t>
+          <t>95,63; 96,92</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>91,8; 95,3</t>
+          <t>92,03; 96,82</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,63; 95,54</t>
+          <t>93,85; 96,65</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/barthel-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/barthel-Estudios-trans_orig.xlsx
@@ -724,62 +724,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>95,57; 97,78</t>
+          <t>95,58; 97,7</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>92,49; 95,71</t>
+          <t>92,36; 95,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>93,49; 96,18</t>
+          <t>93,27; 96,11</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>92,96; 95,45</t>
+          <t>93,14; 95,51</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>94,03; 96,3</t>
+          <t>94,19; 96,37</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>89,42; 92,47</t>
+          <t>89,35; 92,34</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>90,38; 93,65</t>
+          <t>90,67; 93,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>88,2; 90,6</t>
+          <t>88,13; 90,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>94,98; 96,63</t>
+          <t>94,92; 96,63</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>91,03; 93,28</t>
+          <t>91,07; 93,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>92,15; 94,3</t>
+          <t>92,07; 94,39</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>90,19; 92,03</t>
+          <t>90,18; 92,07</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>96,78; 99,65</t>
+          <t>96,83; 99,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>94,03; 98,89</t>
+          <t>94,21; 98,81</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>96,22; 98,96</t>
+          <t>96,44; 99,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>95,82; 97,97</t>
+          <t>95,89; 97,98</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>89,78; 99,07</t>
+          <t>90,55; 99,03</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>89,31; 97,73</t>
+          <t>90,14; 97,62</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>95,19; 97,92</t>
+          <t>95,23; 97,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>95,97; 99,25</t>
+          <t>95,87; 99,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>95,01; 99,11</t>
+          <t>95,1; 99,25</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>93,66; 97,94</t>
+          <t>93,93; 98,11</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>96,29; 98,15</t>
+          <t>96,38; 98,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>96,49; 98,93</t>
+          <t>96,47; 98,99</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>98,12; 99,87</t>
+          <t>98,04; 99,88</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>92,76; 100,0</t>
+          <t>90,08; 100,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>93,22; 99,44</t>
+          <t>92,81; 99,48</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>98,21; 99,31</t>
+          <t>98,19; 99,31</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>94,13; 99,48</t>
+          <t>93,28; 99,38</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>83,91; 98,41</t>
+          <t>84,56; 98,52</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>88,46; 99,49</t>
+          <t>88,67; 99,55</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>97,82; 99,1</t>
+          <t>97,84; 99,13</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>96,89; 99,51</t>
+          <t>97,06; 99,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>91,2; 98,67</t>
+          <t>91,81; 98,69</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>93,36; 99,26</t>
+          <t>93,45; 99,18</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>98,3; 99,14</t>
+          <t>98,32; 99,12</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>96,54; 98,07</t>
+          <t>96,28; 98,04</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>93,51; 96,29</t>
+          <t>93,51; 96,26</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>95,21; 96,99</t>
+          <t>95,2; 96,95</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>95,63; 96,92</t>
+          <t>95,54; 96,87</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>94,3; 96,41</t>
+          <t>94,41; 96,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>90,09; 92,91</t>
+          <t>90,12; 92,86</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>92,12; 94,61</t>
+          <t>92,15; 94,69</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>92,03; 96,82</t>
+          <t>91,96; 96,72</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>95,63; 96,99</t>
+          <t>95,6; 96,98</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>92,11; 93,99</t>
+          <t>92,07; 94,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>93,79; 95,46</t>
+          <t>93,92; 95,47</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,85; 96,65</t>
+          <t>93,91; 96,78</t>
         </is>
       </c>
     </row>
